--- a/src/test/resources/TestDriver/IFRS9_Stage3/Model/IFRS9_Stage3_Model.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Model/IFRS9_Stage3_Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\IFRS9_Stage3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE47C351-63AE-4965-AAEB-3AA83682A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE36CC-C12E-41A6-A752-58D55047D575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECF" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="62">
   <si>
     <t>LN-1001</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Balances_EndingBalance_impairment</t>
+  </si>
+  <si>
+    <t>MeasurementType</t>
   </si>
 </sst>
 </file>
@@ -483,6 +486,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,9 +516,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,8 +824,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +852,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>33</v>
@@ -982,14 +985,14 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1032,10 +1035,10 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="33"/>
       <c r="F2" s="17" t="s">
         <v>23</v>
       </c>
@@ -1048,10 +1051,10 @@
       <c r="K2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="35"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -1178,11 +1181,11 @@
         <f>EOD!H2/100</f>
         <v>0</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
@@ -1292,14 +1295,14 @@
       <c r="L15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="33"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="36"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
@@ -3942,7 +3945,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4114,25 +4117,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36">
+      <c r="A1" s="39">
         <v>45688</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="V3" s="24" t="s">
@@ -4335,25 +4338,25 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="36">
+      <c r="A17" s="39">
         <v>45716</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="41"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="V18" s="24" t="s">
@@ -4825,25 +4828,25 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="36">
+      <c r="A41" s="39">
         <v>45747</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="38"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="41"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -5307,25 +5310,25 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="36">
+      <c r="A63" s="39">
         <v>45777</v>
       </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="38"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="41"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">

--- a/src/test/resources/TestDriver/IFRS9_Stage3/Model/IFRS9_Stage3_Model.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Model/IFRS9_Stage3_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE36CC-C12E-41A6-A752-58D55047D575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE80364-0A3E-4DEC-8695-C2847EC67081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECF" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="62">
   <si>
     <t>LN-1001</t>
   </si>
@@ -441,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -516,6 +516,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,7 +825,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1006,8 +1007,8 @@
   </sheetPr>
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,9 +1326,9 @@
         <f t="shared" ref="E16:E47" si="0">IF(A16="","",IF(A16=$C$5,H15+D16,$C$10))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F16" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B16,ECF!$F$2:$G$12,2),"")</f>
-        <v/>
+      <c r="F16" s="9">
+        <f>IFERROR(VLOOKUP(B16,$O$24:$P$35,2,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="G16" s="9" t="str">
         <f>IFERROR(E16-D16,"")</f>
@@ -1345,9 +1346,9 @@
         <f>IFERROR(E16*I16,"")</f>
         <v/>
       </c>
-      <c r="K16" s="9" t="str">
+      <c r="K16" s="9">
         <f>IFERROR(F16*I16,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L16" s="9" t="str">
         <f>IFERROR(K16-J16,"")</f>
@@ -1394,15 +1395,15 @@
         <v/>
       </c>
       <c r="F17" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B17,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" ref="F17:F65" si="2">IFERROR(VLOOKUP(B17,$O$24:$P$35,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="G17" s="9" t="str">
-        <f t="shared" ref="G17:G65" si="2">IFERROR(E17-D17,"")</f>
+        <f t="shared" ref="G17:G65" si="3">IFERROR(E17-D17,"")</f>
         <v/>
       </c>
       <c r="H17" s="9" t="str">
-        <f t="shared" ref="H17:H65" si="3">IFERROR(C17+D17-E17,"")</f>
+        <f t="shared" ref="H17:H65" si="4">IFERROR(C17+D17-E17,"")</f>
         <v/>
       </c>
       <c r="I17" s="10" t="str">
@@ -1410,15 +1411,15 @@
         <v/>
       </c>
       <c r="J17" s="9" t="str">
-        <f t="shared" ref="J17:J65" si="4">IFERROR(E17*I17,"")</f>
+        <f t="shared" ref="J17:J65" si="5">IFERROR(E17*I17,"")</f>
         <v/>
       </c>
       <c r="K17" s="9" t="str">
-        <f t="shared" ref="K17:K65" si="5">IFERROR(F17*I17,"")</f>
+        <f t="shared" ref="K17:K65" si="6">IFERROR(F17*I17,"")</f>
         <v/>
       </c>
       <c r="L17" s="9" t="str">
-        <f t="shared" ref="L17:L65" si="6">IFERROR(K17-J17,"")</f>
+        <f t="shared" ref="L17:L65" si="7">IFERROR(K17-J17,"")</f>
         <v/>
       </c>
       <c r="N17" s="6"/>
@@ -1453,11 +1454,11 @@
         <v/>
       </c>
       <c r="B18" s="8" t="str">
-        <f t="shared" ref="B18:B65" si="7">IF(A18="","",EOMONTH(B17,1))</f>
+        <f t="shared" ref="B18:B65" si="8">IF(A18="","",EOMONTH(B17,1))</f>
         <v/>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" ref="C18:C65" si="8">IF(A18&lt;&gt;"",H17,"")</f>
+        <f t="shared" ref="C18:C65" si="9">IF(A18&lt;&gt;"",H17,"")</f>
         <v/>
       </c>
       <c r="D18" s="9" t="str">
@@ -1469,15 +1470,15 @@
         <v/>
       </c>
       <c r="F18" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B18,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H18" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I18" s="10" t="str">
@@ -1485,15 +1486,15 @@
         <v/>
       </c>
       <c r="J18" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K18" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L18" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O18" s="8" t="str">
@@ -1527,11 +1528,11 @@
         <v/>
       </c>
       <c r="B19" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D19" s="9" t="str">
@@ -1543,15 +1544,15 @@
         <v/>
       </c>
       <c r="F19" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B19,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H19" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I19" s="10" t="str">
@@ -1559,15 +1560,15 @@
         <v/>
       </c>
       <c r="J19" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K19" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L19" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O19" s="8" t="str">
@@ -1601,11 +1602,11 @@
         <v/>
       </c>
       <c r="B20" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D20" s="9" t="str">
@@ -1617,15 +1618,15 @@
         <v/>
       </c>
       <c r="F20" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B20,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G20" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H20" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I20" s="10" t="str">
@@ -1633,15 +1634,15 @@
         <v/>
       </c>
       <c r="J20" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K20" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L20" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O20" s="8" t="str">
@@ -1675,11 +1676,11 @@
         <v/>
       </c>
       <c r="B21" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D21" s="9" t="str">
@@ -1691,15 +1692,15 @@
         <v/>
       </c>
       <c r="F21" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B21,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G21" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H21" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I21" s="10" t="str">
@@ -1707,15 +1708,15 @@
         <v/>
       </c>
       <c r="J21" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K21" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L21" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O21" s="4"/>
@@ -1726,11 +1727,11 @@
         <v/>
       </c>
       <c r="B22" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D22" s="9" t="str">
@@ -1742,15 +1743,15 @@
         <v/>
       </c>
       <c r="F22" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B22,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G22" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H22" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I22" s="10" t="str">
@@ -1758,15 +1759,15 @@
         <v/>
       </c>
       <c r="J22" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K22" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L22" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O22" s="4"/>
@@ -1777,11 +1778,11 @@
         <v/>
       </c>
       <c r="B23" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D23" s="9" t="str">
@@ -1793,15 +1794,15 @@
         <v/>
       </c>
       <c r="F23" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B23,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G23" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H23" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I23" s="10" t="str">
@@ -1809,18 +1810,23 @@
         <v/>
       </c>
       <c r="J23" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K23" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L23" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O23" s="4"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O23" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
@@ -1828,11 +1834,11 @@
         <v/>
       </c>
       <c r="B24" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D24" s="9" t="str">
@@ -1844,15 +1850,15 @@
         <v/>
       </c>
       <c r="F24" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B24,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G24" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H24" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I24" s="10" t="str">
@@ -1860,18 +1866,25 @@
         <v/>
       </c>
       <c r="J24" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K24" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L24" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O24" s="4"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O24" s="8">
+        <f>ECF!F2</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <f>ECF!G2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
@@ -1879,11 +1892,11 @@
         <v/>
       </c>
       <c r="B25" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D25" s="9" t="str">
@@ -1895,15 +1908,15 @@
         <v/>
       </c>
       <c r="F25" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B25,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G25" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H25" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I25" s="10" t="str">
@@ -1911,18 +1924,25 @@
         <v/>
       </c>
       <c r="J25" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K25" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L25" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O25" s="4"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O25" s="8">
+        <f>ECF!F3</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <f>ECF!G3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="str">
@@ -1930,11 +1950,11 @@
         <v/>
       </c>
       <c r="B26" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D26" s="9" t="str">
@@ -1946,15 +1966,15 @@
         <v/>
       </c>
       <c r="F26" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B26,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G26" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H26" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I26" s="10" t="str">
@@ -1962,18 +1982,25 @@
         <v/>
       </c>
       <c r="J26" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K26" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L26" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O26" s="4"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O26" s="8">
+        <f>ECF!F4</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <f>ECF!G4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="str">
@@ -1981,11 +2008,11 @@
         <v/>
       </c>
       <c r="B27" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D27" s="9" t="str">
@@ -1997,15 +2024,15 @@
         <v/>
       </c>
       <c r="F27" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B27,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G27" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H27" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I27" s="10" t="str">
@@ -2013,18 +2040,25 @@
         <v/>
       </c>
       <c r="J27" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K27" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L27" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O27" s="4"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O27" s="8">
+        <f>ECF!F5</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <f>ECF!G5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="str">
@@ -2032,11 +2066,11 @@
         <v/>
       </c>
       <c r="B28" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D28" s="9" t="str">
@@ -2048,15 +2082,15 @@
         <v/>
       </c>
       <c r="F28" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B28,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G28" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H28" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I28" s="10" t="str">
@@ -2064,16 +2098,24 @@
         <v/>
       </c>
       <c r="J28" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K28" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L28" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O28" s="8">
+        <f>ECF!F6</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <f>ECF!G6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2082,11 +2124,11 @@
         <v/>
       </c>
       <c r="B29" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D29" s="9" t="str">
@@ -2098,15 +2140,15 @@
         <v/>
       </c>
       <c r="F29" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B29,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G29" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H29" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I29" s="10" t="str">
@@ -2114,16 +2156,24 @@
         <v/>
       </c>
       <c r="J29" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K29" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L29" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O29" s="8">
+        <f>ECF!F7</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <f>ECF!G7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2132,11 +2182,11 @@
         <v/>
       </c>
       <c r="B30" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D30" s="9" t="str">
@@ -2148,15 +2198,15 @@
         <v/>
       </c>
       <c r="F30" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B30,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G30" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H30" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I30" s="10" t="str">
@@ -2164,16 +2214,24 @@
         <v/>
       </c>
       <c r="J30" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K30" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L30" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O30" s="8">
+        <f>ECF!F8</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <f>ECF!G8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2182,11 +2240,11 @@
         <v/>
       </c>
       <c r="B31" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D31" s="9" t="str">
@@ -2198,15 +2256,15 @@
         <v/>
       </c>
       <c r="F31" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B31,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G31" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H31" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I31" s="10" t="str">
@@ -2214,16 +2272,24 @@
         <v/>
       </c>
       <c r="J31" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K31" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L31" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O31" s="8">
+        <f>ECF!F9</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <f>ECF!G9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2232,11 +2298,11 @@
         <v/>
       </c>
       <c r="B32" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D32" s="9" t="str">
@@ -2248,15 +2314,15 @@
         <v/>
       </c>
       <c r="F32" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B32,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G32" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H32" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I32" s="10" t="str">
@@ -2264,29 +2330,37 @@
         <v/>
       </c>
       <c r="J32" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K32" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L32" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O32" s="8">
+        <f>ECF!F10</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <f>ECF!G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B33" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D33" s="9" t="str">
@@ -2298,15 +2372,15 @@
         <v/>
       </c>
       <c r="F33" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B33,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G33" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H33" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I33" s="10" t="str">
@@ -2314,29 +2388,37 @@
         <v/>
       </c>
       <c r="J33" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K33" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L33" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O33" s="8">
+        <f>ECF!F11</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <f>ECF!G11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B34" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D34" s="9" t="str">
@@ -2348,15 +2430,15 @@
         <v/>
       </c>
       <c r="F34" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B34,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G34" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H34" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I34" s="10" t="str">
@@ -2364,29 +2446,37 @@
         <v/>
       </c>
       <c r="J34" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K34" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L34" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O34" s="8">
+        <f>ECF!F12</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
+        <f>ECF!G12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B35" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D35" s="9" t="str">
@@ -2398,15 +2488,15 @@
         <v/>
       </c>
       <c r="F35" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B35,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G35" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H35" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I35" s="10" t="str">
@@ -2414,29 +2504,37 @@
         <v/>
       </c>
       <c r="J35" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K35" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L35" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O35" s="8">
+        <f>ECF!F13</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
+        <f>ECF!G13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B36" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D36" s="9" t="str">
@@ -2448,15 +2546,15 @@
         <v/>
       </c>
       <c r="F36" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B36,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G36" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H36" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I36" s="10" t="str">
@@ -2464,29 +2562,29 @@
         <v/>
       </c>
       <c r="J36" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K36" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L36" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B37" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C37" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D37" s="9" t="str">
@@ -2498,15 +2596,15 @@
         <v/>
       </c>
       <c r="F37" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B37,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G37" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H37" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I37" s="10" t="str">
@@ -2514,29 +2612,29 @@
         <v/>
       </c>
       <c r="J37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K37" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L37" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B38" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D38" s="9" t="str">
@@ -2548,15 +2646,15 @@
         <v/>
       </c>
       <c r="F38" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B38,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G38" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H38" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I38" s="10" t="str">
@@ -2564,29 +2662,29 @@
         <v/>
       </c>
       <c r="J38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K38" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L38" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B39" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C39" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D39" s="9" t="str">
@@ -2598,15 +2696,15 @@
         <v/>
       </c>
       <c r="F39" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B39,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G39" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H39" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I39" s="10" t="str">
@@ -2614,29 +2712,29 @@
         <v/>
       </c>
       <c r="J39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K39" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L39" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B40" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C40" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D40" s="9" t="str">
@@ -2648,15 +2746,15 @@
         <v/>
       </c>
       <c r="F40" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B40,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G40" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H40" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I40" s="10" t="str">
@@ -2664,29 +2762,29 @@
         <v/>
       </c>
       <c r="J40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K40" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L40" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B41" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C41" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D41" s="9" t="str">
@@ -2698,15 +2796,15 @@
         <v/>
       </c>
       <c r="F41" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B41,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G41" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H41" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I41" s="10" t="str">
@@ -2714,29 +2812,29 @@
         <v/>
       </c>
       <c r="J41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K41" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L41" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B42" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C42" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D42" s="9" t="str">
@@ -2748,15 +2846,15 @@
         <v/>
       </c>
       <c r="F42" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B42,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G42" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H42" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I42" s="10" t="str">
@@ -2764,29 +2862,29 @@
         <v/>
       </c>
       <c r="J42" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K42" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L42" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B43" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C43" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D43" s="9" t="str">
@@ -2798,15 +2896,15 @@
         <v/>
       </c>
       <c r="F43" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B43,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G43" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H43" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I43" s="10" t="str">
@@ -2814,29 +2912,29 @@
         <v/>
       </c>
       <c r="J43" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K43" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L43" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B44" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C44" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D44" s="9" t="str">
@@ -2848,15 +2946,15 @@
         <v/>
       </c>
       <c r="F44" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B44,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G44" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H44" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I44" s="10" t="str">
@@ -2864,29 +2962,29 @@
         <v/>
       </c>
       <c r="J44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K44" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L44" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B45" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C45" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D45" s="9" t="str">
@@ -2898,15 +2996,15 @@
         <v/>
       </c>
       <c r="F45" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B45,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G45" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H45" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I45" s="10" t="str">
@@ -2914,29 +3012,29 @@
         <v/>
       </c>
       <c r="J45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K45" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L45" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B46" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C46" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D46" s="9" t="str">
@@ -2948,15 +3046,15 @@
         <v/>
       </c>
       <c r="F46" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B46,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G46" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H46" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I46" s="10" t="str">
@@ -2964,29 +3062,29 @@
         <v/>
       </c>
       <c r="J46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K46" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L46" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B47" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C47" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D47" s="9" t="str">
@@ -2998,15 +3096,15 @@
         <v/>
       </c>
       <c r="F47" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B47,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G47" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H47" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I47" s="10" t="str">
@@ -3014,29 +3112,29 @@
         <v/>
       </c>
       <c r="J47" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K47" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L47" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B48" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C48" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D48" s="9" t="str">
@@ -3044,19 +3142,19 @@
         <v/>
       </c>
       <c r="E48" s="9" t="str">
-        <f t="shared" ref="E48:E65" si="9">IF(A48="","",IF(A48=$C$5,H47+D48,$C$10))</f>
+        <f t="shared" ref="E48:E65" si="10">IF(A48="","",IF(A48=$C$5,H47+D48,$C$10))</f>
         <v/>
       </c>
       <c r="F48" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B48,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G48" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H48" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I48" s="10" t="str">
@@ -3064,29 +3162,29 @@
         <v/>
       </c>
       <c r="J48" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K48" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L48" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
-        <f t="shared" ref="A49:A65" si="10">IFERROR(IF(A48+1&gt;$C$5,"",A48+1),"")</f>
+        <f t="shared" ref="A49:A65" si="11">IFERROR(IF(A48+1&gt;$C$5,"",A48+1),"")</f>
         <v/>
       </c>
       <c r="B49" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C49" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D49" s="9" t="str">
@@ -3094,19 +3192,19 @@
         <v/>
       </c>
       <c r="E49" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F49" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B49,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G49" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H49" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I49" s="10" t="str">
@@ -3114,29 +3212,29 @@
         <v/>
       </c>
       <c r="J49" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K49" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L49" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B50" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C50" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D50" s="9" t="str">
@@ -3144,19 +3242,19 @@
         <v/>
       </c>
       <c r="E50" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F50" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B50,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G50" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H50" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I50" s="10" t="str">
@@ -3164,29 +3262,29 @@
         <v/>
       </c>
       <c r="J50" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K50" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L50" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B51" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C51" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D51" s="9" t="str">
@@ -3194,19 +3292,19 @@
         <v/>
       </c>
       <c r="E51" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F51" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B51,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G51" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H51" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I51" s="10" t="str">
@@ -3214,29 +3312,29 @@
         <v/>
       </c>
       <c r="J51" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K51" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L51" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B52" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C52" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D52" s="9" t="str">
@@ -3244,19 +3342,19 @@
         <v/>
       </c>
       <c r="E52" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F52" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B52,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G52" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H52" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I52" s="10" t="str">
@@ -3264,29 +3362,29 @@
         <v/>
       </c>
       <c r="J52" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K52" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L52" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B53" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C53" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D53" s="9" t="str">
@@ -3294,19 +3392,19 @@
         <v/>
       </c>
       <c r="E53" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F53" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B53,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G53" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H53" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I53" s="10" t="str">
@@ -3314,29 +3412,29 @@
         <v/>
       </c>
       <c r="J53" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K53" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L53" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B54" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C54" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D54" s="9" t="str">
@@ -3344,19 +3442,19 @@
         <v/>
       </c>
       <c r="E54" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F54" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B54,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G54" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H54" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I54" s="10" t="str">
@@ -3364,29 +3462,29 @@
         <v/>
       </c>
       <c r="J54" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K54" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L54" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B55" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C55" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D55" s="9" t="str">
@@ -3394,19 +3492,19 @@
         <v/>
       </c>
       <c r="E55" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F55" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B55,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G55" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H55" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I55" s="10" t="str">
@@ -3414,29 +3512,29 @@
         <v/>
       </c>
       <c r="J55" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K55" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L55" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B56" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C56" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D56" s="9" t="str">
@@ -3444,19 +3542,19 @@
         <v/>
       </c>
       <c r="E56" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F56" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B56,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G56" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H56" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I56" s="10" t="str">
@@ -3464,29 +3562,29 @@
         <v/>
       </c>
       <c r="J56" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K56" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L56" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B57" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C57" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D57" s="9" t="str">
@@ -3494,19 +3592,19 @@
         <v/>
       </c>
       <c r="E57" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F57" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B57,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G57" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H57" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I57" s="10" t="str">
@@ -3514,29 +3612,29 @@
         <v/>
       </c>
       <c r="J57" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K57" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L57" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B58" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C58" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D58" s="9" t="str">
@@ -3544,19 +3642,19 @@
         <v/>
       </c>
       <c r="E58" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F58" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B58,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G58" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H58" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I58" s="10" t="str">
@@ -3564,29 +3662,29 @@
         <v/>
       </c>
       <c r="J58" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K58" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L58" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B59" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C59" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D59" s="9" t="str">
@@ -3594,19 +3692,19 @@
         <v/>
       </c>
       <c r="E59" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F59" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B59,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G59" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H59" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I59" s="10" t="str">
@@ -3614,29 +3712,29 @@
         <v/>
       </c>
       <c r="J59" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K59" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L59" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B60" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C60" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D60" s="9" t="str">
@@ -3644,19 +3742,19 @@
         <v/>
       </c>
       <c r="E60" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F60" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B60,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G60" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H60" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I60" s="10" t="str">
@@ -3664,29 +3762,29 @@
         <v/>
       </c>
       <c r="J60" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K60" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L60" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B61" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C61" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D61" s="9" t="str">
@@ -3694,19 +3792,19 @@
         <v/>
       </c>
       <c r="E61" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F61" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B61,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G61" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H61" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I61" s="10" t="str">
@@ -3714,29 +3812,29 @@
         <v/>
       </c>
       <c r="J61" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K61" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L61" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B62" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C62" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D62" s="9" t="str">
@@ -3744,19 +3842,19 @@
         <v/>
       </c>
       <c r="E62" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F62" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B62,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G62" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H62" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I62" s="10" t="str">
@@ -3764,29 +3862,29 @@
         <v/>
       </c>
       <c r="J62" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K62" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L62" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B63" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C63" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D63" s="9" t="str">
@@ -3794,19 +3892,19 @@
         <v/>
       </c>
       <c r="E63" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F63" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B63,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G63" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H63" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I63" s="10" t="str">
@@ -3814,29 +3912,29 @@
         <v/>
       </c>
       <c r="J63" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K63" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L63" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B64" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C64" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D64" s="9" t="str">
@@ -3844,19 +3942,19 @@
         <v/>
       </c>
       <c r="E64" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F64" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B64,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G64" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H64" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I64" s="10" t="str">
@@ -3864,29 +3962,29 @@
         <v/>
       </c>
       <c r="J64" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K64" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L64" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B65" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C65" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D65" s="9" t="str">
@@ -3894,19 +3992,19 @@
         <v/>
       </c>
       <c r="E65" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F65" s="9" t="str">
-        <f>IFERROR(VLOOKUP(B65,ECF!$F$2:$G$12,2),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G65" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H65" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I65" s="10" t="str">
@@ -3914,15 +4012,15 @@
         <v/>
       </c>
       <c r="J65" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K65" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L65" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
